--- a/docs/orcad_tutorial_220304.xlsx
+++ b/docs/orcad_tutorial_220304.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OrCAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OrCAD\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15570" windowHeight="8145"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Error" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>This application has quit unexpectedly.</t>
     <phoneticPr fontId="1"/>
@@ -36,6 +36,15 @@
   <si>
     <t>To submit the archived project, contact Cadence Customer Support.</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このアプリケーションは予期せず終了しました。</t>
+  </si>
+  <si>
+    <t>ケイデンスが問題を検出して分析できるように、現在のプロジェクトをアーカイブします。</t>
+  </si>
+  <si>
+    <t>アーカイブされたプロジェクトを提出するには、ケイデンスカスタマーサポートに連絡してください。</t>
   </si>
 </sst>
 </file>
@@ -59,12 +68,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -81,8 +96,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -112,8 +130,8 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>543541</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>38716</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>47832</xdr:rowOff>
     </xdr:to>
@@ -134,6 +152,44 @@
         <a:xfrm>
           <a:off x="933450" y="619125"/>
           <a:ext cx="4410691" cy="1486107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>75650</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>133112</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="5086350"/>
+          <a:ext cx="4400000" cy="1904762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -408,13 +464,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B15:B18"/>
+  <dimension ref="B15:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="15" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
@@ -431,6 +487,22 @@
         <v>2</v>
       </c>
     </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/orcad_tutorial_220304.xlsx
+++ b/docs/orcad_tutorial_220304.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15570" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15570" windowHeight="8145" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Error" sheetId="1" r:id="rId1"/>
+    <sheet name="Warning" sheetId="3" r:id="rId2"/>
+    <sheet name="メニュー違い" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>This application has quit unexpectedly.</t>
     <phoneticPr fontId="1"/>
@@ -45,6 +47,46 @@
   </si>
   <si>
     <t>アーカイブされたプロジェクトを提出するには、ケイデンスカスタマーサポートに連絡してください。</t>
+  </si>
+  <si>
+    <t>Error from library part is newer than the part in the design cache.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャッシュを更新するだけ</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>This action affects the complete design thus clearing thte UNDO/REDO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>information list.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You will not be able to UNDO/REDO any of the previous actions. Do you want to continue?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このアクションは完全な設計に影響を与えるため、UNDO / REDO情報リストがクリアされます。以前のアクションを元に戻す/やり直すことはできません。続けたいですか？</t>
+  </si>
+  <si>
+    <t>This action will aplly changes made in property editor to the design, and clear Undo/Redo information in schematic editor.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>You will not be able to Undo/Redo any of the previous actions. Do you want to apply changes?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このアクションにより、プロパティエディターで行われた変更がデザインに適用され、回路図面エディターで元に戻す/やり直しの情報がクリアされます。</t>
+  </si>
+  <si>
+    <t>以前のアクションを元に戻す/やり直すことはできません。 変更を適用しますか？</t>
   </si>
 </sst>
 </file>
@@ -190,6 +232,244 @@
         <a:xfrm>
           <a:off x="371475" y="5086350"/>
           <a:ext cx="4400000" cy="1904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>143484</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>38345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="10629900"/>
+          <a:ext cx="4363059" cy="1752845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>19304</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>120129</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="485775" y="16125825"/>
+          <a:ext cx="2933954" cy="1310754"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>99415</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>141241</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="8324850"/>
+          <a:ext cx="4099915" cy="3132091"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276737</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="495300"/>
+          <a:ext cx="3667637" cy="1638529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>515290</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38170</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="1419225"/>
+          <a:ext cx="6735115" cy="504895"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>115086</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19116</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="742950"/>
+          <a:ext cx="5630061" cy="476316"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -464,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B15:B27"/>
+  <dimension ref="B15:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -503,9 +783,94 @@
       </c>
     </row>
     <row r="27" spans="2:2" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="92" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D105" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D109" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B15:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/orcad_tutorial_220304.xlsx
+++ b/docs/orcad_tutorial_220304.xlsx
@@ -827,7 +827,7 @@
   <dimension ref="B15:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/docs/orcad_tutorial_220304.xlsx
+++ b/docs/orcad_tutorial_220304.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15570" windowHeight="8145" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15570" windowHeight="8145" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Error" sheetId="1" r:id="rId1"/>
     <sheet name="Warning" sheetId="3" r:id="rId2"/>
     <sheet name="メニュー違い" sheetId="2" r:id="rId3"/>
+    <sheet name="PropertyEditor" sheetId="4" r:id="rId4"/>
+    <sheet name="Toolバー" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>This application has quit unexpectedly.</t>
     <phoneticPr fontId="1"/>
@@ -87,6 +89,40 @@
   </si>
   <si>
     <t>以前のアクションを元に戻す/やり直すことはできません。 変更を適用しますか？</t>
+  </si>
+  <si>
+    <t>選択してからダブルクリック</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Schematic Nets</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Parts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>［Pins］タブ</t>
+  </si>
+  <si>
+    <t>［Title Blocks］タブ</t>
+  </si>
+  <si>
+    <t>［Globals］タブ</t>
+  </si>
+  <si>
+    <t>［Ports］タブ</t>
+  </si>
+  <si>
+    <t>［Aliases］タブ</t>
+  </si>
+  <si>
+    <t>ツール&gt;カスタマイズ</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -110,7 +146,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,6 +156,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -138,11 +180,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -470,6 +515,510 @@
         <a:xfrm>
           <a:off x="657225" y="742950"/>
           <a:ext cx="5630061" cy="476316"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>48529</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="457200"/>
+          <a:ext cx="6477904" cy="362001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>99332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171816</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>9046</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="560614" y="6290582"/>
+          <a:ext cx="2672809" cy="1491545"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>108858</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>125186</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>170170</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>7318</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="312965" y="3132365"/>
+          <a:ext cx="4143455" cy="2889310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>4652</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>126984</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="408214" y="1592036"/>
+          <a:ext cx="4086795" cy="3134162"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>118928</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>25242</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="489857" y="5089071"/>
+          <a:ext cx="3915321" cy="5372850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>151987</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>156768</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3156857" y="17566821"/>
+          <a:ext cx="6792273" cy="2048161"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>68035</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>177079</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>53209</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="884464" y="17961428"/>
+          <a:ext cx="1333686" cy="1019317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>17213</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>136338</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="408214" y="20342679"/>
+          <a:ext cx="6344535" cy="1905266"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>149680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>167992</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>38851</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6926036" y="20846144"/>
+          <a:ext cx="4467849" cy="5372850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>185227</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>64074</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="394607" y="38644285"/>
+          <a:ext cx="1219370" cy="866896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>90191</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>156702</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2245179" y="38916429"/>
+          <a:ext cx="2743583" cy="1571844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>8547</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>115879</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2367643" y="38698714"/>
+          <a:ext cx="2743583" cy="1571844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>105121</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38713</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="447675"/>
+          <a:ext cx="2476846" cy="4391638"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -746,7 +1295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B15:D109"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A77" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -826,7 +1375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B15:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
@@ -873,4 +1422,83 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B7:C160"/>
+  <sheetViews>
+    <sheetView topLeftCell="A132" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG158" sqref="AG158"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="7" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B97" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B114" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B152" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B156" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B160" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/orcad_tutorial_220304.xlsx
+++ b/docs/orcad_tutorial_220304.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15570" windowHeight="8145" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15570" windowHeight="8145" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Error" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="メニュー違い" sheetId="2" r:id="rId3"/>
     <sheet name="PropertyEditor" sheetId="4" r:id="rId4"/>
     <sheet name="Toolバー" sheetId="6" r:id="rId5"/>
+    <sheet name="ライブラリ追加" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1485,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1501,4 +1502,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>